--- a/Planning/Planning_28_3_4_4.xlsx
+++ b/Planning/Planning_28_3_4_4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B93AA95-290D-4A08-8554-C5CFA09E4281}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374BCA21-7ADB-44C5-9110-F09DD6ACA4C4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>Tischler, Trinkl</t>
+  </si>
+  <si>
+    <t>Starting with Coin System/Remove Coin Function</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Tischler, Punz</t>
   </si>
 </sst>
 </file>
@@ -382,15 +391,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.21875" customWidth="1"/>
     <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -416,34 +425,45 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Planning/Planning_28_3_4_4.xlsx
+++ b/Planning/Planning_28_3_4_4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374BCA21-7ADB-44C5-9110-F09DD6ACA4C4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093FEC32-C996-4877-B499-B7FB36231ACB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Task</t>
   </si>
@@ -43,9 +43,6 @@
     <t>2h</t>
   </si>
   <si>
-    <t>Punz</t>
-  </si>
-  <si>
     <t>daily login and shop view</t>
   </si>
   <si>
@@ -74,6 +71,12 @@
   </si>
   <si>
     <t>Tischler, Punz</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Punz, Strutzenberger</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,46 +428,67 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
